--- a/param-to-record-EM6400NG.xlsx
+++ b/param-to-record-EM6400NG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sajal Sirohi.DESKTOP-RTVGPUA\Desktop\SRIP internship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sajal Sirohi.DESKTOP-RTVGPUA\Desktop\meter_NG6400\EM6400NG-Smart-Meter\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Parameters</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Block Size</t>
+  </si>
+  <si>
+    <t>Float - 32</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -509,7 +512,7 @@
         <v>3000</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
